--- a/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,11</t>
+          <t>-22,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,4</t>
+          <t>-18,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,02</t>
+          <t>-19,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,12</t>
+          <t>-22,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>-14,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>-15,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>-36,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>-25,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>-28,59%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-31,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,42%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-24,58%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-25,19%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 27,07</t>
+          <t>-27,48; -16,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 23,23</t>
+          <t>-24,17; -13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 25,28</t>
+          <t>-24,96; -14,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,22</t>
+          <t>-27,63; -16,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 20,61</t>
+          <t>-18,77; -4,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,98; 73,44</t>
+          <t>-19,84; -9,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,6; 102,32</t>
+          <t>-20,19; -9,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,09; 92,49</t>
+          <t>-43,55; -29,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,6; 98,05</t>
+          <t>-31,64; -18,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 55,81</t>
+          <t>-34,68; -21,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-38,03; -24,77</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-28,0; -8,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; -15,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-32,31; -16,68</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,56</t>
+          <t>-25,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,02</t>
+          <t>-17,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>-14,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,54</t>
+          <t>-18,57</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>-18,57</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,15%</t>
+          <t>-15,71</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>-39,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>-23,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>-21,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-21,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-25,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-28,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-24,43%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 31,83</t>
+          <t>-31,25; -19,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 21,97</t>
+          <t>-24,11; -9,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 20,88</t>
+          <t>-20,3; -7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 19,58</t>
+          <t>-20,3; -7,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 27,73</t>
+          <t>-25,62; -11,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,8; 104,24</t>
+          <t>-27,94; -9,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,42; 94,05</t>
+          <t>-24,68; -6,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 66,38</t>
+          <t>-45,98; -30,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 64,35</t>
+          <t>-31,28; -14,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,0; 95,16</t>
+          <t>-29,8; -12,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; -12,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; -16,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-39,65; -14,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-36,16; -10,25</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,27</t>
+          <t>-26,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>-21,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>-19,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,99%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>106,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>-43,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>-23,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-31,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-29,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 37,41</t>
+          <t>-37,95; -14,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,58</t>
+          <t>-29,45; -7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 32,4</t>
+          <t>-31,53; -9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 30,98</t>
+          <t>-29,6; -5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-11,95; 19,14</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>28,99; 119,02</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 223,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 139,23</t>
+          <t>-57,12; -26,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 111,49</t>
+          <t>-34,93; -9,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-42,2; -15,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-43,29; -11,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 40,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,01</t>
+          <t>-24,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>-18,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,71</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>-15,72</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>67,61%</t>
+          <t>-15,34</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>-38,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-27,46%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-25,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 27,97</t>
+          <t>-27,31; -20,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,56</t>
+          <t>-21,82; -13,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 21,87</t>
+          <t>-21,43; -14,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 21,53</t>
+          <t>-22,62; -14,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,57</t>
+          <t>-17,57; -8,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,34; 79,36</t>
+          <t>-20,09; -10,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,68; 92,64</t>
+          <t>-19,57; -10,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,2; 73,45</t>
+          <t>-42,55; -33,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,09; 72,63</t>
+          <t>-28,91; -18,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,1; 57,25</t>
+          <t>-30,96; -21,51</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,41; -22,18</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; -12,87</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-31,61; -18,18</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,84; -18,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-22,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-18,7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-19,85</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-22,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-12,44</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-14,77</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-15,11</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-36,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-25,29%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-28,59%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-31,66%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-19,42%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-24,58%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-25,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-22.11345341101653</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-18.81448081950833</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-19.9289214668623</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-21.83032580049989</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-12.73477654002749</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-14.76631265874966</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-15.15241773739982</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3693898205926762</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2534433773879204</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2869913050812337</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.3105063750254205</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1986439873078469</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.2458362618575319</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.2521977398895666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,48; -16,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,17; -13,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,96; -14,29</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-27,63; -16,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,77; -4,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; -9,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-20,19; -9,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-43,55; -29,15</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-31,64; -18,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-34,68; -21,49</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-38,03; -24,77</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-28,0; -8,32</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-31,97; -15,88</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-32,31; -16,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.47580602449711</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.38510547002398</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-25.16472249608488</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.23169009680968</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.10966994605807</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-19.83855822024218</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-20.37542484145303</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4354997185638777</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3170427090655853</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3483619666699925</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3730981462711679</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2859052583575751</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.3197214289008858</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.3239549208980443</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-16.96933569543533</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-13.08719195662672</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-14.35752937184812</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-16.02546569974949</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-4.709086948429509</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-9.089997876556435</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-9.79761812120525</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.2914682669007432</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.1849169291217168</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.214408691731214</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.2357334796612767</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.08592611242829643</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>-0.1588383250536832</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>-0.1695396684717177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-25,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-17,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-14,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,57</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-18,57</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-15,71</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-39,05%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-23,2%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-21,81%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-21,2%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-25,81%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-28,21%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-24,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; -19,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,11; -9,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; -7,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; -7,16</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,62; -11,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,94; -9,0</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; -6,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-45,98; -30,81</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-31,28; -14,62</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; -12,41</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-29,88; -12,06</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-34,15; -16,67</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-39,65; -14,42</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-36,16; -10,25</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-25.56260310245523</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-16.37118621547249</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-13.70019059366486</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.86380761267161</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-19.21344211537004</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-18.56721072820423</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-15.37043437175178</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.390498328988318</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2226053387081802</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2121959911802257</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.2132061255727332</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2652398327226759</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.282059882532491</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.2398266803086465</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-26,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-18,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-21,85</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-19,13</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-43,22%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-23,68%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-31,03%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-29,98%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-31.24534595568684</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.46444403556653</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.0401888629697</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-20.29294579410633</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-26.16348865996051</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-27.94099115100687</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-23.90735249001313</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4598486927885047</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3038658635788491</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2937148387637037</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2980988389530511</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3487726554188508</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.396451924358996</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.3577657007847518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-37,95; -14,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-29,45; -7,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; -9,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,6; -5,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,95; 19,14</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,12; -26,84</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-34,93; -9,61</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-42,2; -15,14</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-43,29; -11,1</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 40,52</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-19.1611102429829</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-8.937190013613574</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-7.283258177902689</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-7.448823329565293</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-12.38012707602013</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-9.000769779654009</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-5.571934394576468</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.3080501205400786</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1285484673770085</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.1179656743054643</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-0.1223250723985838</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.1771758535730013</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>-0.144231665364636</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>-0.09432682547774807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-24,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-18,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-18,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-13,27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,72</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-15,34</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-38,58%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-24,34%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-26,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-27,46%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-19,9%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-25,59%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-25,14%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-26.27108341684792</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-20.85642981213753</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-21.49174092563749</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-20.04066469906617</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.750862104869488</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.4321822402842197</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2549420023671876</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3068609555759563</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.3106282306655169</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.02963012107243043</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-27,31; -20,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,82; -13,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,43; -14,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; -14,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-17,57; -8,14</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; -10,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-19,57; -10,56</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-42,55; -33,33</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-28,91; -18,98</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-30,96; -21,51</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-32,41; -22,18</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-25,67; -12,87</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-31,61; -18,18</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-30,84; -18,01</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-37.95123042626894</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-31.61741600181227</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-31.55524433992425</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-30.23368422108026</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-12.25103224789869</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.5711759707577921</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3754538779449386</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4218328281360784</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.4441301952137365</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.1778204727537432</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-14.63127344724246</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-9.479216438495682</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.627377169457207</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-6.500363131427722</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>19.54322641148272</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>-0.2684037159923323</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.1247013757202039</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.1551847556199653</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>-0.1310637176525434</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.4197211280466806</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-24.00784131950985</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-18.14132095882639</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-17.64108644694471</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-18.43263801356677</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-13.67852480157298</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-15.72342443851956</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-15.28993293833339</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3857978698646855</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2423276768545088</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2611256426027979</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.2731722925171698</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2046276958254389</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.2558840500751566</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.2504266595474308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-27.31193511750774</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-21.95846973853723</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-21.33809232090316</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-22.60756973783818</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-17.96909342815106</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-20.09143354493174</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-19.35482702348298</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4255399271606428</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2871638359824611</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3073500305492142</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.3253603988167819</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.261245924276658</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.3160527943343434</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.3090711272763547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-20.12883508168092</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-13.47155744851947</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-13.87942907963638</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-14.39736937964541</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-8.391604659927356</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-10.74189523577495</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-10.49112830963472</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.3332636538337893</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1860786682497089</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.212458296819385</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.2218662960645029</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.1344108805833873</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>-0.1817512733994769</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>-0.1803347897877299</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
